--- a/deliveryreview/Mom_Details_Sample.xlsx
+++ b/deliveryreview/Mom_Details_Sample.xlsx
@@ -68,7 +68,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Completiondate</t>
+    <t>Completion Date</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -336,7 +336,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="10" max="10" width="25.0" customWidth="true"/>
-    <col min="12" max="12" width="25.0" customWidth="true"/>
+    <col min="12" max="12" width="17.08984375" customWidth="true"/>
     <col min="13" max="13" width="25.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -552,7 +552,7 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:C4"/>
     <mergeCell ref="D2:K4"/>
     <mergeCell ref="L2:O2"/>

--- a/deliveryreview/Mom_Details_Sample.xlsx
+++ b/deliveryreview/Mom_Details_Sample.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mom-Date.xlsx" r:id="rId3" sheetId="1"/>
+    <sheet name="Mom-23-11-2021" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/deliveryreview/Mom_Details_Sample.xlsx
+++ b/deliveryreview/Mom_Details_Sample.xlsx
@@ -6,72 +6,88 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mom-23-11-2021" r:id="rId3" sheetId="1"/>
+    <sheet name="Mom-29-11-2021" r:id="rId3" sheetId="1"/>
+    <sheet name="Mom-23-11-2021" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Minutes Of Meetings</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>29/11/2021</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>abhiraj.salvi@avekshaa.com</t>
+  </si>
+  <si>
+    <t>vamsee.krishna@avekshaa.com</t>
+  </si>
+  <si>
+    <t>ram.singh@avekshaa.com</t>
+  </si>
+  <si>
+    <t>rishi.ranjan@avekshaa.com</t>
+  </si>
+  <si>
+    <t>Point Discussed</t>
+  </si>
+  <si>
+    <t>Test (assessment), an educational assessment intended to measure the respondents'</t>
+  </si>
+  <si>
+    <t>Point Agreed/Action Items</t>
+  </si>
+  <si>
+    <t>Task Details</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completion Date</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Medasani Vamsee Krishna, Ram Singh</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>23/11/2021</t>
   </si>
   <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Abhiraj Salvi</t>
-  </si>
-  <si>
-    <t>Ashish Modi</t>
-  </si>
-  <si>
-    <t>Digendra Singh</t>
-  </si>
-  <si>
-    <t>Rachit Raj</t>
-  </si>
-  <si>
-    <t>Ram Singh</t>
-  </si>
-  <si>
-    <t>Ved Bhure</t>
-  </si>
-  <si>
-    <t>Vinayak Shinde</t>
-  </si>
-  <si>
-    <t>Point Discussed</t>
+    <t>ashish.modi@avekshaa.com</t>
+  </si>
+  <si>
+    <t>digendra.singh@avekshaa.com</t>
+  </si>
+  <si>
+    <t>rachit.raj@avekshaa.com</t>
+  </si>
+  <si>
+    <t>bhure.ved@avekshaa.com</t>
+  </si>
+  <si>
+    <t>vinayak.shinde@avekshaa.com</t>
   </si>
   <si>
     <t>This is the test Mom for update 1245678</t>
-  </si>
-  <si>
-    <t>Point Agreed/Action Items</t>
-  </si>
-  <si>
-    <t>Task Details</t>
-  </si>
-  <si>
-    <t>Responsible</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Completion Date</t>
-  </si>
-  <si>
-    <t>Remarks</t>
   </si>
   <si>
     <t>The Menu component doesn't accept a Fragment as a child.
@@ -79,9 +95,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>You can set the column width using setColumnWidth method of XSSFWorkbook. The 1st parameter is the column number</t>
@@ -122,13 +135,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -256,28 +316,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -327,9 +421,52 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1067060" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -344,211 +481,379 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2">
+      <c r="B2" s="3"/>
       <c r="D2" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="L3" t="s" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" hidden="true">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="N3" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="L4" t="s" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" hidden="true">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="B6" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7">
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
         <v>8</v>
+      </c>
+      <c r="D13" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" t="s" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="3"/>
+      <c r="C21" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:K4"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="B6:C10"/>
+    <mergeCell ref="O6:O10"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="B11:O12"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D13:N15"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="B16:O17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="A2:A101"/>
+    <mergeCell ref="P2:P101"/>
+    <mergeCell ref="B23:O101"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="10" max="10" width="25.0" customWidth="true"/>
+    <col min="12" max="12" width="17.08984375" customWidth="true"/>
+    <col min="13" max="13" width="25.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="13"/>
+      <c r="D2" t="s" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3">
+      <c r="L3" t="s" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" hidden="true">
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="13">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="13"/>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="13">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="J21" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="K21" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="L21" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="M21" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s" s="2">
+      <c r="O21" s="13"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="13"/>
+      <c r="C24" t="n" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="L24" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="23">
-      <c r="B23" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="2"/>
-      <c r="C24" t="n" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D24" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="O24" s="2"/>
+      <c r="M24" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="O24" s="13"/>
     </row>
     <row r="25">
-      <c r="B25" s="2"/>
-      <c r="C25" t="n" s="2">
+      <c r="B25" s="13"/>
+      <c r="C25" t="n" s="13">
         <v>2.0</v>
       </c>
-      <c r="D25" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="K25" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="L25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="O25" s="2"/>
+      <c r="D25" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="O25" s="13"/>
     </row>
     <row r="26">
-      <c r="B26" s="2"/>
-      <c r="C26" t="n" s="2">
+      <c r="B26" s="13"/>
+      <c r="C26" t="n" s="13">
         <v>3.0</v>
       </c>
-      <c r="D26" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="J26" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="K26" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s" s="3">
+      <c r="D26" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="K26" t="s" s="17">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="M26" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="13"/>
+      <c r="C27" t="n" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="D27" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="K27" t="s" s="16">
         <v>29</v>
       </c>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="2"/>
-      <c r="C27" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="J27" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="K27" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="O27" s="2"/>
+      <c r="L27" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="O27" s="13"/>
     </row>
     <row r="28">
-      <c r="B28" s="2"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29">
-      <c r="B29" s="1"/>
+      <c r="B29" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
